--- a/Output_with_units_enriched.xlsx
+++ b/Output_with_units_enriched.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['Latest Reference Range &amp; Units 02/22/24 09:20   Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)', 'Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)', 'Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)']</t>
+          <t>['Latest Reference Range &amp; Units 02/22/24 09:20   Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -509,9 +509,7 @@
   "kappa_lambda_ratio": "&gt;115.57",
   "date_of_lab": "2024-02-22",
   "evidence_sentences": [
-    "Latest Reference Range &amp; Units 02/22/24 09:20   Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)",
-    "Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)",
-    "Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)"
+    "Latest Reference Range &amp; Units 02/22/24 09:20   Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)"
   ],
   "source_document": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586"
 }</t>
@@ -546,7 +544,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL', 'Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL', 'Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22']</t>
+          <t>['Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -557,9 +555,7 @@
   "kappa_lambda_ratio": "&gt;1456.71",
   "date_of_lab": "2024-02-08",
   "evidence_sentences": [
-    "Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL",
-    "Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL",
-    "Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22"
+    "Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22"
   ],
   "source_document": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586"
 }</t>
@@ -569,7 +565,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-03-05_00:00:00.000_IMTX_Conference_Note_91479</t>
+          <t>2024-02-08_00:00:00.000_Progress_Notes_91427</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -589,7 +585,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2021-12-XX</t>
+          <t>2021-12-01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -603,11 +599,11 @@
   "kappa_flc": "1.45",
   "lambda_flc": "0.73",
   "kappa_lambda_ratio": "1.99",
-  "date_of_lab": "2021-12-XX",
+  "date_of_lab": "2021-12-01",
   "evidence_sentences": [
     "His most recent labs on 12/1/21 show an M-spike of 0.2, kappa FLC 1.45, lambda FLC 0.73, and kappa/lambda ratio of 1.99."
   ],
-  "source_document": "2024-03-05_00:00:00.000_IMTX_Conference_Note_91479"
+  "source_document": "2024-02-08_00:00:00.000_Progress_Notes_91427"
 }</t>
         </is>
       </c>
@@ -615,499 +611,81 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-06-25_00:00:00.000_Progress_Notes_91596</t>
+          <t>2024-02-08_00:00:00.000_Progress_Notes_91427</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>20.78</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&lt;0.15</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>&gt;0.57</t>
+          <t>86.58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024-06-13</t>
+          <t>2021-06-XX</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL', 'Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL', 'Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22']</t>
+          <t>['In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58.']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "0.08",
-  "lambda_flc": "&lt;0.15",
-  "kappa_lambda_ratio": "&gt;0.57",
-  "date_of_lab": "2024-06-13",
-  "evidence_sentences": [
-    "Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL",
-    "Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL",
-    "Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22"
-  ],
-  "source_document": "2024-06-25_00:00:00.000_Progress_Notes_91596"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2024-02-10_00:00:00.000_Progress_Notes_91437</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>204</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>&lt; 0.15</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>&gt;1456.71</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2024-01-24</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>['MM markers (1/24): KFLC 204, LFLC &lt; 0.15, ratio &gt;1456.71, M spike 2.6 IgG kappa, Kappa free light chain TSTQ.']</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "204",
-  "lambda_flc": "&lt; 0.15",
-  "kappa_lambda_ratio": "&gt;1456.71",
-  "date_of_lab": "2024-01-24",
-  "evidence_sentences": [
-    "MM markers (1/24): KFLC 204, LFLC &lt; 0.15, ratio &gt;1456.71, M spike 2.6 IgG kappa, Kappa free light chain TSTQ."
-  ],
-  "source_document": "2024-02-10_00:00:00.000_Progress_Notes_91437"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2024-03-11_00:00:00.000_H&amp;P_91495</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>20.78</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>86.58</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2022-01-07</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>['he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58.']</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
         <is>
           <t>{
   "kappa_flc": "20.78",
   "lambda_flc": "0.24",
   "kappa_lambda_ratio": "86.58",
-  "date_of_lab": "2022-01-07",
+  "date_of_lab": "2021-06-XX",
   "evidence_sentences": [
-    "he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58."
+    "In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58."
   ],
-  "source_document": "2024-03-11_00:00:00.000_H&amp;P_91495"
+  "source_document": "2024-02-08_00:00:00.000_Progress_Notes_91427"
 }</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2022-01-18_00:00:00.000_BMT_Conference_Note_91158</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2022-XX-XX</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>['12/15: SPEP IgG kappa M spike of 0.1, Kappa light chain 1.24, lambda light chain 0.72.', 'Kappa/ lambda ratio 1.72, beta 2 microglobulin 1.3']</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "1.24",
-  "lambda_flc": "0.72",
-  "kappa_lambda_ratio": "1.72",
-  "date_of_lab": "2022-XX-XX",
-  "evidence_sentences": [
-    "12/15: SPEP IgG kappa M spike of 0.1, Kappa light chain 1.24, lambda light chain 0.72.",
-    "Kappa/ lambda ratio 1.72, beta 2 microglobulin 1.3"
-  ],
-  "source_document": "2022-01-18_00:00:00.000_BMT_Conference_Note_91158"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2024-03-11_00:00:00.000_H&amp;P_91495</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>42.66</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>&gt; 1733.29</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2024-01-16</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>['Pre therapy 1/16/2024: Kappa free light chains to 42.66, ratio &gt; 1733.29, 2 and spikes on SPEP = 2.8 IgG kappa, kappa monoclonal free light chain too small to quantify, IgG 3393 (1/24/24)']</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "42.66",
-  "lambda_flc": "0.15",
-  "kappa_lambda_ratio": "&gt; 1733.29",
-  "date_of_lab": "2024-01-16",
-  "evidence_sentences": [
-    "Pre therapy 1/16/2024: Kappa free light chains to 42.66, ratio &gt; 1733.29, 2 and spikes on SPEP = 2.8 IgG kappa, kappa monoclonal free light chain too small to quantify, IgG 3393 (1/24/24)"
-  ],
-  "source_document": "2024-03-11_00:00:00.000_H&amp;P_91495"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2024-03-10_00:00:00.000_Progress_Notes_91489</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>242</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>&lt; 0.15</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>&gt;1733.29</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2024-01-XX</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>['MM markers (1/16): KFLC 242, LFLC &lt; 0.15, ratio &gt;1733.29, M spike 2.8 IgG kappa, Kappa free light chain TSTQ.']</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "242",
-  "lambda_flc": "&lt; 0.15",
-  "kappa_lambda_ratio": "&gt;1733.29",
-  "date_of_lab": "2024-01-XX",
-  "evidence_sentences": [
-    "MM markers (1/16): KFLC 242, LFLC &lt; 0.15, ratio &gt;1733.29, M spike 2.8 IgG kappa, Kappa free light chain TSTQ."
-  ],
-  "source_document": "2024-03-10_00:00:00.000_Progress_Notes_91489"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2024-03-18_00:00:00.000_Progress_Notes_91526</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>16.18</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>&lt; 0.15</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>&gt; 115.57</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2024-02-XX</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>['Pre-CAR T evaluation: MM labs (2/22): KFLC 16.18, LFLC &lt; 0.15, ratio &gt; 115.57. IgG Kappa M spike 0.1.']</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "16.18",
-  "lambda_flc": "&lt; 0.15",
-  "kappa_lambda_ratio": "&gt; 115.57",
-  "date_of_lab": "2024-02-XX",
-  "evidence_sentences": [
-    "Pre-CAR T evaluation: MM labs (2/22): KFLC 16.18, LFLC &lt; 0.15, ratio &gt; 115.57. IgG Kappa M spike 0.1."
-  ],
-  "source_document": "2024-03-18_00:00:00.000_Progress_Notes_91526"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2024-06-25_00:00:00.000_Progress_Notes_91596</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2023-07-18</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>['Baseline free light chains (per notes): Kappa 65, Lambda 0.34, Kappa/Lambda 190']</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "65",
-  "lambda_flc": "0.34",
-  "kappa_lambda_ratio": "190",
-  "date_of_lab": "2023-07-18",
-  "evidence_sentences": [
-    "Baseline free light chains (per notes): Kappa 65, Lambda 0.34, Kappa/Lambda 190"
-  ],
-  "source_document": "2024-06-25_00:00:00.000_Progress_Notes_91596"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2024-04-23_00:00:00.000_Progress_Notes_91592</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>201.45 mg/dL</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>&lt;0.15 mg/dL</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2023-06-13</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>['Eventually his M spike was up to 2.2 g/dL on 6/13/2023, KFLC 201.45 mg/dL, &lt;0.15 mg/dL, K/L &gt;1,438.93.']</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "201.45 mg/dL",
-  "lambda_flc": "&lt;0.15 mg/dL",
-  "kappa_lambda_ratio": "1",
-  "date_of_lab": "2023-06-13",
-  "evidence_sentences": [
-    "Eventually his M spike was up to 2.2 g/dL on 6/13/2023, KFLC 201.45 mg/dL, &lt;0.15 mg/dL, K/L &gt;1,438.93."
-  ],
-  "source_document": "2024-04-23_00:00:00.000_Progress_Notes_91592"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2023-12-01_00:00:00.000_Progress_Notes_91285</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>129.5 mg/dL</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>&lt;0.15 mg/dL</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2022-02-22_00:00:00.000_Progress_Notes_91240</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>129.54</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>&gt;914.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-11-28</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>['Myeloma labs 11/28/2023: KFLC 129.5 mg/dL, LFLC &lt;0.15 mg/dL.', 'M-spike 2.0 IgG kappa and TSTQ kappa light chain.']</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "129.5 mg/dL",
-  "lambda_flc": "&lt;0.15 mg/dL",
-  "kappa_lambda_ratio": "2.0",
-  "date_of_lab": "2023-11-28",
-  "evidence_sentences": [
-    "Myeloma labs 11/28/2023: KFLC 129.5 mg/dL, LFLC &lt;0.15 mg/dL.",
-    "M-spike 2.0 IgG kappa and TSTQ kappa light chain."
-  ],
-  "source_document": "2023-12-01_00:00:00.000_Progress_Notes_91285"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2024-02-25_00:00:00.000_Progress_Notes_91461</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>129.54</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>&gt;914.29</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2023-11-28</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>['Multiple myeloma labs: 11/28/23: kappa free light chain (KFLC) 129.54mg /dL, lambda free light chain (LFLC) 15mg /dL, kappa/lambda ratio &gt;914.29.']</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>['11/28/23: kappa free light chain (KFLC) 129.54mg /dL, lambda free light chain (LFLC) 15mg /dL, kappa/lambda ratio &gt;914.29.']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>{
   "kappa_flc": "129.54",
@@ -1115,45 +693,45 @@
   "kappa_lambda_ratio": "&gt;914.29",
   "date_of_lab": "2023-11-28",
   "evidence_sentences": [
-    "Multiple myeloma labs: 11/28/23: kappa free light chain (KFLC) 129.54mg /dL, lambda free light chain (LFLC) 15mg /dL, kappa/lambda ratio &gt;914.29."
+    "11/28/23: kappa free light chain (KFLC) 129.54mg /dL, lambda free light chain (LFLC) 15mg /dL, kappa/lambda ratio &gt;914.29."
   ],
-  "source_document": "2024-02-25_00:00:00.000_Progress_Notes_91461"
+  "source_document": "2022-02-22_00:00:00.000_Progress_Notes_91240"
 }</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2022-01-11_00:00:00.000_Progress_Notes_91138</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-06-25_00:00:00.000_Progress_Notes_91596</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>242.66</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>&lt;0.15</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>&gt;1733.29</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2024-01-16</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>['1/16/24: KFLC 242.66, LFLC &lt;0.15, kappa/lambda ratio &gt;1733.29.']</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>{
   "kappa_flc": "242.66",
@@ -1163,43 +741,43 @@
   "evidence_sentences": [
     "1/16/24: KFLC 242.66, LFLC &lt;0.15, kappa/lambda ratio &gt;1733.29."
   ],
-  "source_document": "2022-01-11_00:00:00.000_Progress_Notes_91138"
+  "source_document": "2024-06-25_00:00:00.000_Progress_Notes_91596"
 }</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2024-02-05_00:00:00.000_Progress_Notes_91407</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2021-12-17_00:00:00.000_Progress_Notes_91098</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>16.18</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>&lt;0.15</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>&gt;115.57</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2024-02-22</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>['2/22/24: KFLC 16.18, LFLC &lt;0.15, kappa/lambda ratio &gt;115.57.']</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>{
   "kappa_flc": "16.18",
@@ -1209,93 +787,7 @@
   "evidence_sentences": [
     "2/22/24: KFLC 16.18, LFLC &lt;0.15, kappa/lambda ratio &gt;115.57."
   ],
-  "source_document": "2024-02-05_00:00:00.000_Progress_Notes_91407"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2024-02-13_00:00:00.000_Progress_Notes_91443</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>64.9</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2021-12-17</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>['At diagnosis M-spike was 6, Hgb 8.4, calcium of 9.7, albumin 2.3, adjusted calcium level 11.1, creatinine 0.99.', 'IgG of 5610, kappa FLC 64.9, lappa/lambda ratio of 190, total protein 10.7.', 'Biopsy of left 3rd rib p demonstrated plasmacytoma.']</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "64.9",
-  "lambda_flc": "",
-  "kappa_lambda_ratio": "190",
-  "date_of_lab": "2021-12-17",
-  "evidence_sentences": [
-    "At diagnosis M-spike was 6, Hgb 8.4, calcium of 9.7, albumin 2.3, adjusted calcium level 11.1, creatinine 0.99.",
-    "IgG of 5610, kappa FLC 64.9, lappa/lambda ratio of 190, total protein 10.7.",
-    "Biopsy of left 3rd rib p demonstrated plasmacytoma."
-  ],
-  "source_document": "2024-02-13_00:00:00.000_Progress_Notes_91443"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2024-04-23_00:00:00.000_Progress_Notes_91592</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2021-12-XX</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>['Free light chains: kappa free light chain was 1.24 and kappa/lambda ratio was 1.72.']</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "1.24",
-  "lambda_flc": "",
-  "kappa_lambda_ratio": "1.72",
-  "date_of_lab": "2021-12-XX",
-  "evidence_sentences": [
-    "Free light chains: kappa free light chain was 1.24 and kappa/lambda ratio was 1.72."
-  ],
-  "source_document": "2024-04-23_00:00:00.000_Progress_Notes_91592"
+  "source_document": "2021-12-17_00:00:00.000_Progress_Notes_91098"
 }</t>
         </is>
       </c>
